--- a/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DBC770C-C7C2-4DBE-B970-6A8B6456EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{181EE89D-9F01-40C9-B0F7-0E6A06918E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3BF4D33-BB50-47DE-89D4-1084860BFD42}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05A807C5-25EC-4C95-A7E7-B678A0B4FD65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
   <si>
-    <t>dukeAdic en 2007 (Tasa respuesta: 99,91%)</t>
+    <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1444 +77,1444 @@
     <t>9,22%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59473409-C595-4D9C-AA60-E22A2A66063B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED64E323-2DE7-4589-9E28-ADD5B15353AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2223,10 +2223,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -2235,13 +2235,13 @@
         <v>143143</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2256,13 @@
         <v>665516</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>525</v>
@@ -2271,13 +2271,13 @@
         <v>551329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>1163</v>
@@ -2286,13 +2286,13 @@
         <v>1216845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2360,13 @@
         <v>92653</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -2375,13 +2375,13 @@
         <v>101242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -2390,13 +2390,13 @@
         <v>193896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2411,13 @@
         <v>544930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -2426,13 +2426,13 @@
         <v>587522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>1085</v>
@@ -2441,13 +2441,13 @@
         <v>1132451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2515,13 +2515,13 @@
         <v>70885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -2530,13 +2530,13 @@
         <v>106054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2545,13 +2545,13 @@
         <v>176938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>448262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>400</v>
@@ -2581,13 +2581,13 @@
         <v>409588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -2596,13 +2596,13 @@
         <v>857851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2670,13 +2670,13 @@
         <v>64440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2685,13 +2685,13 @@
         <v>97433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -2700,13 +2700,13 @@
         <v>161872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2721,13 @@
         <v>321426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>302</v>
@@ -2736,13 +2736,13 @@
         <v>306553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>627</v>
@@ -2751,13 +2751,13 @@
         <v>627980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2825,13 @@
         <v>118556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>190</v>
@@ -2840,13 +2840,13 @@
         <v>198879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>315</v>
@@ -2855,13 +2855,13 @@
         <v>317435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2876,13 @@
         <v>382159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -2891,13 +2891,13 @@
         <v>477963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>868</v>
@@ -2906,13 +2906,13 @@
         <v>860122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2980,13 @@
         <v>461964</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>599</v>
@@ -2995,13 +2995,13 @@
         <v>630467</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1056</v>
@@ -3010,13 +3010,13 @@
         <v>1092431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3031,13 @@
         <v>2810062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>2696</v>
@@ -3046,28 +3046,28 @@
         <v>2746755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>5449</v>
       </c>
       <c r="N23" s="7">
-        <v>5556817</v>
+        <v>5556818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6649248</v>
+        <v>6649249</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9FC8EA-1828-47EE-8DE7-A8A8E4B3C002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CDB5A9-A1AD-4109-A993-59078D3434B1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,13 +3269,13 @@
         <v>51298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3284,13 +3284,13 @@
         <v>43766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3299,13 +3299,13 @@
         <v>95065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3320,13 @@
         <v>399848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
@@ -3335,13 +3335,13 @@
         <v>385491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>773</v>
@@ -3350,13 +3350,13 @@
         <v>785338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3424,13 @@
         <v>96780</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3439,13 +3439,13 @@
         <v>98772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -3454,13 +3454,13 @@
         <v>195552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3475,13 @@
         <v>586237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3490,13 +3490,13 @@
         <v>509331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -3505,13 +3505,13 @@
         <v>1095568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3567,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3579,13 @@
         <v>112934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -3594,13 +3594,13 @@
         <v>119314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -3609,13 +3609,13 @@
         <v>232248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3630,13 @@
         <v>567739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3645,13 +3645,13 @@
         <v>587223</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>1093</v>
@@ -3660,13 +3660,13 @@
         <v>1154962</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3722,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3734,13 +3734,13 @@
         <v>110730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -3749,13 +3749,13 @@
         <v>132209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -3764,13 +3764,13 @@
         <v>242939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3785,13 @@
         <v>499872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>421</v>
@@ -3800,13 +3800,13 @@
         <v>479132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -3815,13 +3815,13 @@
         <v>979004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3877,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3889,13 +3889,13 @@
         <v>68136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -3904,13 +3904,13 @@
         <v>101929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -3919,13 +3919,13 @@
         <v>170066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3940,13 @@
         <v>359262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>313</v>
@@ -3955,13 +3955,13 @@
         <v>342794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>642</v>
@@ -3970,13 +3970,13 @@
         <v>702055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4032,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4044,13 +4044,13 @@
         <v>139817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -4059,13 +4059,13 @@
         <v>175071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -4074,13 +4074,13 @@
         <v>314888</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4095,13 @@
         <v>413100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>521</v>
@@ -4110,13 +4110,13 @@
         <v>556956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>892</v>
@@ -4125,13 +4125,13 @@
         <v>970056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4199,13 @@
         <v>579695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
         <v>613</v>
@@ -4214,13 +4214,13 @@
         <v>671062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>1143</v>
@@ -4229,13 +4229,13 @@
         <v>1250757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4250,13 @@
         <v>2826057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>2663</v>
@@ -4265,13 +4265,13 @@
         <v>2860926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
         <v>5321</v>
@@ -4280,13 +4280,13 @@
         <v>5686984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4342,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DE44E-11A1-49B5-A78A-0D677B6EE97C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8448357C-8AEB-4880-AE21-7AC1789AACD4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4488,13 +4488,13 @@
         <v>36177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4503,13 +4503,13 @@
         <v>39813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4518,13 +4518,13 @@
         <v>75990</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4539,13 @@
         <v>383286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>363</v>
@@ -4554,13 +4554,13 @@
         <v>355942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>723</v>
@@ -4569,13 +4569,13 @@
         <v>739228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4643,13 @@
         <v>59656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -4658,13 +4658,13 @@
         <v>56578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -4673,13 +4673,13 @@
         <v>116234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4694,13 @@
         <v>527446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4709,13 +4709,13 @@
         <v>503568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M8" s="7">
         <v>1026</v>
@@ -4724,13 +4724,13 @@
         <v>1031014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4798,13 +4798,13 @@
         <v>74511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -4813,13 +4813,13 @@
         <v>82553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -4828,13 +4828,13 @@
         <v>157064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4849,13 @@
         <v>593721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4864,13 +4864,13 @@
         <v>570537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7">
         <v>1140</v>
@@ -4879,13 +4879,13 @@
         <v>1164258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4941,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4953,13 +4953,13 @@
         <v>123875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -4968,13 +4968,13 @@
         <v>121373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
@@ -4983,13 +4983,13 @@
         <v>245248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5004,13 @@
         <v>518320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
@@ -5019,13 +5019,13 @@
         <v>527704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>955</v>
@@ -5034,13 +5034,13 @@
         <v>1046024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5096,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5108,13 +5108,13 @@
         <v>85994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5123,13 +5123,13 @@
         <v>114811</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -5138,13 +5138,13 @@
         <v>200805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5159,13 @@
         <v>386522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>329</v>
@@ -5174,13 +5174,13 @@
         <v>378711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -5189,13 +5189,13 @@
         <v>765233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5251,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5263,13 +5263,13 @@
         <v>125289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -5278,13 +5278,13 @@
         <v>203099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -5293,13 +5293,13 @@
         <v>328388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5314,13 @@
         <v>464229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -5329,13 +5329,13 @@
         <v>571212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>972</v>
@@ -5344,13 +5344,13 @@
         <v>1035440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5418,13 @@
         <v>505503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="H22" s="7">
         <v>569</v>
@@ -5433,13 +5433,13 @@
         <v>618226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>188</v>
+        <v>362</v>
       </c>
       <c r="M22" s="7">
         <v>1051</v>
@@ -5448,13 +5448,13 @@
         <v>1123729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5469,13 @@
         <v>2873521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H23" s="7">
         <v>2752</v>
@@ -5484,13 +5484,13 @@
         <v>2907675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M23" s="7">
         <v>5487</v>
@@ -5499,13 +5499,13 @@
         <v>5781197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5561,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA1B632-106B-48AF-AF05-AC18A09CCAEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936758D1-0AA2-4E2C-8743-02BA2640987F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5707,13 +5707,13 @@
         <v>15438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5722,13 +5722,13 @@
         <v>39472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5737,13 +5737,13 @@
         <v>54910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5758,13 @@
         <v>360288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -5773,13 +5773,13 @@
         <v>315485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5788,13 +5788,13 @@
         <v>675773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5862,13 @@
         <v>49302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -5877,13 +5877,13 @@
         <v>55116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -5892,13 +5892,13 @@
         <v>104418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5913,13 @@
         <v>377725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>405</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -5928,13 +5928,13 @@
         <v>442160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>660</v>
@@ -5943,13 +5943,13 @@
         <v>819885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,7 +6005,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6017,13 +6017,13 @@
         <v>76155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -6032,13 +6032,13 @@
         <v>63721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6047,13 +6047,13 @@
         <v>139877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6068,13 @@
         <v>477388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>415</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H11" s="7">
         <v>749</v>
@@ -6083,10 +6083,10 @@
         <v>518301</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>420</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6190,10 +6190,10 @@
         <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>286</v>
@@ -6202,13 +6202,13 @@
         <v>224004</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6223,13 @@
         <v>605583</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -6238,13 +6238,13 @@
         <v>624307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>1498</v>
@@ -6253,13 +6253,13 @@
         <v>1229890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6315,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6327,13 +6327,13 @@
         <v>133651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -6342,13 +6342,13 @@
         <v>136309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>374</v>
@@ -6357,13 +6357,13 @@
         <v>269960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6378,13 @@
         <v>461821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>765</v>
@@ -6393,13 +6393,13 @@
         <v>452131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>1271</v>
@@ -6408,13 +6408,13 @@
         <v>913952</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6470,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6482,13 +6482,13 @@
         <v>155246</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>464</v>
@@ -6497,13 +6497,13 @@
         <v>366486</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M19" s="7">
         <v>696</v>
@@ -6512,13 +6512,13 @@
         <v>521732</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,10 +6533,10 @@
         <v>535443</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>467</v>
@@ -6715,7 +6715,7 @@
         <v>6993</v>
       </c>
       <c r="N23" s="7">
-        <v>5815355</v>
+        <v>5815356</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>489</v>
@@ -6766,7 +6766,7 @@
         <v>8651</v>
       </c>
       <c r="N24" s="7">
-        <v>7130255</v>
+        <v>7130256</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181EE89D-9F01-40C9-B0F7-0E6A06918E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E56FD2D-9135-47C0-85B7-2DB4FF6C5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05A807C5-25EC-4C95-A7E7-B678A0B4FD65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7763CED8-29B6-41EF-9621-7B069C9E1E87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,1279 +77,1321 @@
     <t>9,22%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,6%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>17,14%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>82,86%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>82,71%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
   </si>
   <si>
     <t>86,71%</t>
@@ -1926,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED64E323-2DE7-4589-9E28-ADD5B15353AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7ED750-D13D-4214-B18E-E4A88FB906AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2223,10 +2265,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -2235,13 +2277,13 @@
         <v>143143</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2298,13 @@
         <v>665516</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>525</v>
@@ -2271,13 +2313,13 @@
         <v>551329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1163</v>
@@ -2286,13 +2328,13 @@
         <v>1216845</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,7 +2390,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2402,13 @@
         <v>92653</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -2375,13 +2417,13 @@
         <v>101242</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>184</v>
@@ -2390,13 +2432,13 @@
         <v>193896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2453,13 @@
         <v>544930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>562</v>
@@ -2426,13 +2468,13 @@
         <v>587522</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1085</v>
@@ -2441,13 +2483,13 @@
         <v>1132451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2545,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2515,13 +2557,13 @@
         <v>70885</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -2530,13 +2572,13 @@
         <v>106054</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -2545,13 +2587,13 @@
         <v>176938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2608,13 @@
         <v>448262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>400</v>
@@ -2581,13 +2623,13 @@
         <v>409588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>817</v>
@@ -2596,13 +2638,13 @@
         <v>857851</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2670,13 +2712,13 @@
         <v>64440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2685,13 +2727,13 @@
         <v>97433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -2700,13 +2742,13 @@
         <v>161872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2763,13 @@
         <v>321426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>302</v>
@@ -2736,13 +2778,13 @@
         <v>306553</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>627</v>
@@ -2751,13 +2793,13 @@
         <v>627980</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2855,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2867,13 @@
         <v>118556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>190</v>
@@ -2840,13 +2882,13 @@
         <v>198879</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>315</v>
@@ -2855,13 +2897,13 @@
         <v>317435</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2918,13 @@
         <v>382159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -2891,13 +2933,13 @@
         <v>477963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>868</v>
@@ -2906,13 +2948,13 @@
         <v>860122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3022,13 @@
         <v>461964</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>599</v>
@@ -2995,13 +3037,13 @@
         <v>630467</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1056</v>
@@ -3010,13 +3052,13 @@
         <v>1092431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3073,13 @@
         <v>2810062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2696</v>
@@ -3046,28 +3088,28 @@
         <v>2746755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5449</v>
       </c>
       <c r="N23" s="7">
-        <v>5556818</v>
+        <v>5556817</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3151,7 @@
         <v>6505</v>
       </c>
       <c r="N24" s="7">
-        <v>6649249</v>
+        <v>6649248</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3123,7 +3165,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CDB5A9-A1AD-4109-A993-59078D3434B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078D9296-2560-4C6C-83C7-83066FB83B9D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3162,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3269,13 +3311,13 @@
         <v>51298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3284,13 +3326,13 @@
         <v>43766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>90</v>
@@ -3299,13 +3341,13 @@
         <v>95065</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3362,13 @@
         <v>399848</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7">
         <v>378</v>
@@ -3335,13 +3377,13 @@
         <v>385491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>773</v>
@@ -3350,13 +3392,13 @@
         <v>785338</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3466,13 @@
         <v>96780</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3439,13 +3481,13 @@
         <v>98772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>177</v>
@@ -3454,13 +3496,13 @@
         <v>195552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3517,13 @@
         <v>586237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3490,13 +3532,13 @@
         <v>509331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -3505,13 +3547,13 @@
         <v>1095568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3609,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3621,13 @@
         <v>112934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -3594,13 +3636,13 @@
         <v>119314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>220</v>
@@ -3609,13 +3651,13 @@
         <v>232248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3672,13 @@
         <v>567739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3645,13 +3687,13 @@
         <v>587223</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1093</v>
@@ -3660,13 +3702,13 @@
         <v>1154962</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3764,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3734,13 +3776,13 @@
         <v>110730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -3749,13 +3791,13 @@
         <v>132209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -3764,13 +3806,13 @@
         <v>242939</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3827,13 @@
         <v>499872</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>421</v>
@@ -3800,13 +3842,13 @@
         <v>479132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>866</v>
@@ -3815,13 +3857,13 @@
         <v>979004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3919,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3889,13 +3931,13 @@
         <v>68136</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -3904,13 +3946,13 @@
         <v>101929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -3919,13 +3961,13 @@
         <v>170066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3982,13 @@
         <v>359262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>313</v>
@@ -3955,13 +3997,13 @@
         <v>342794</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>642</v>
@@ -3970,13 +4012,13 @@
         <v>702055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4074,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4044,13 +4086,13 @@
         <v>139817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -4059,13 +4101,13 @@
         <v>175071</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
@@ -4074,13 +4116,13 @@
         <v>314888</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4137,13 @@
         <v>413100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>521</v>
@@ -4110,13 +4152,13 @@
         <v>556956</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>892</v>
@@ -4125,13 +4167,13 @@
         <v>970056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4241,13 @@
         <v>579695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>613</v>
@@ -4214,13 +4256,13 @@
         <v>671062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1143</v>
@@ -4229,13 +4271,13 @@
         <v>1250757</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4292,13 @@
         <v>2826057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2663</v>
@@ -4265,13 +4307,13 @@
         <v>2860926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>5321</v>
@@ -4280,13 +4322,13 @@
         <v>5686984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4384,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8448357C-8AEB-4880-AE21-7AC1789AACD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E98524-7F67-470C-AD0B-3B819DF6320F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4488,13 +4530,13 @@
         <v>36177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4503,13 +4545,13 @@
         <v>39813</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>74</v>
@@ -4518,13 +4560,13 @@
         <v>75990</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4581,13 @@
         <v>383286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>363</v>
@@ -4554,13 +4596,13 @@
         <v>355942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>723</v>
@@ -4569,13 +4611,13 @@
         <v>739228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4685,13 @@
         <v>59656</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>58</v>
@@ -4658,13 +4700,13 @@
         <v>56578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
@@ -4673,13 +4715,13 @@
         <v>116234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4736,13 @@
         <v>527446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4709,13 +4751,13 @@
         <v>503568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1026</v>
@@ -4724,13 +4766,13 @@
         <v>1031014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,7 +4828,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4798,13 +4840,13 @@
         <v>74511</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -4813,13 +4855,13 @@
         <v>82553</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -4828,13 +4870,13 @@
         <v>157064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4891,13 @@
         <v>593721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4864,13 +4906,13 @@
         <v>570537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>1140</v>
@@ -4879,13 +4921,13 @@
         <v>1164258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4983,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4953,13 +4995,13 @@
         <v>123875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -4968,13 +5010,13 @@
         <v>121373</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
@@ -4983,13 +5025,13 @@
         <v>245248</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5046,13 @@
         <v>518320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
@@ -5019,13 +5061,13 @@
         <v>527704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>955</v>
@@ -5034,13 +5076,13 @@
         <v>1046024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5108,13 +5150,13 @@
         <v>85994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5123,13 +5165,13 @@
         <v>114811</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -5138,13 +5180,13 @@
         <v>200805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5201,13 @@
         <v>386522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>329</v>
@@ -5174,13 +5216,13 @@
         <v>378711</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -5189,13 +5231,13 @@
         <v>765233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,7 +5293,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5263,13 +5305,13 @@
         <v>125289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>171</v>
@@ -5278,13 +5320,13 @@
         <v>203099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
@@ -5293,13 +5335,13 @@
         <v>328388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5356,13 @@
         <v>464229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>481</v>
@@ -5329,13 +5371,13 @@
         <v>571212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>972</v>
@@ -5344,13 +5386,13 @@
         <v>1035440</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5460,13 @@
         <v>505503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>569</v>
@@ -5433,13 +5475,13 @@
         <v>618226</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>1051</v>
@@ -5448,13 +5490,13 @@
         <v>1123729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5511,13 @@
         <v>2873521</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>2752</v>
@@ -5484,13 +5526,13 @@
         <v>2907675</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>5487</v>
@@ -5499,13 +5541,13 @@
         <v>5781197</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,7 +5603,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5583,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936758D1-0AA2-4E2C-8743-02BA2640987F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C03A0F-EFEC-4ADF-BA37-2E99552DBCAB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5707,13 +5749,13 @@
         <v>15438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5722,13 +5764,13 @@
         <v>39472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5737,13 +5779,13 @@
         <v>54910</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5800,13 @@
         <v>360288</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -5773,13 +5815,13 @@
         <v>315485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5788,13 +5830,13 @@
         <v>675773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5904,13 @@
         <v>49302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -5877,13 +5919,13 @@
         <v>55116</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -5892,13 +5934,13 @@
         <v>104418</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5955,13 @@
         <v>377725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -5928,13 +5970,13 @@
         <v>442160</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>660</v>
@@ -5943,13 +5985,13 @@
         <v>819885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,7 +6047,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6017,13 +6059,13 @@
         <v>76155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>95</v>
@@ -6032,13 +6074,13 @@
         <v>63721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -6047,13 +6089,13 @@
         <v>139877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6110,13 @@
         <v>477388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>749</v>
@@ -6083,13 +6125,13 @@
         <v>518301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1212</v>
@@ -6098,13 +6140,13 @@
         <v>995689</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,7 +6202,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6172,13 +6214,13 @@
         <v>109692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>176</v>
@@ -6187,13 +6229,13 @@
         <v>114312</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>286</v>
@@ -6202,13 +6244,13 @@
         <v>224004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6265,13 @@
         <v>605583</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>951</v>
@@ -6238,13 +6280,13 @@
         <v>624307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1498</v>
@@ -6253,13 +6295,13 @@
         <v>1229890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6357,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6327,13 +6369,13 @@
         <v>133651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -6342,13 +6384,13 @@
         <v>136309</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>374</v>
@@ -6357,13 +6399,13 @@
         <v>269960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6420,13 @@
         <v>461821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>765</v>
@@ -6393,13 +6435,13 @@
         <v>452131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1271</v>
@@ -6408,13 +6450,13 @@
         <v>913952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6512,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6482,13 +6524,13 @@
         <v>155246</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>464</v>
@@ -6497,13 +6539,13 @@
         <v>366486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>696</v>
@@ -6512,13 +6554,13 @@
         <v>521732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6575,13 @@
         <v>535443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H20" s="7">
         <v>1218</v>
@@ -6548,13 +6590,13 @@
         <v>644722</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>2004</v>
@@ -6563,13 +6605,13 @@
         <v>1180165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6679,13 @@
         <v>539484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>1034</v>
@@ -6652,13 +6694,13 @@
         <v>775417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>1658</v>
@@ -6667,13 +6709,13 @@
         <v>1314900</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6730,13 @@
         <v>2818249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="H23" s="7">
         <v>4271</v>
@@ -6703,13 +6745,13 @@
         <v>2997105</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>6993</v>
@@ -6718,13 +6760,13 @@
         <v>5815356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E56FD2D-9135-47C0-85B7-2DB4FF6C5838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87C602E-CC35-4336-B1D4-69B9660C259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7763CED8-29B6-41EF-9621-7B069C9E1E87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{396CF042-EA5B-4B03-91DC-CA93112415C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1426 +137,1444 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>65 y más</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7ED750-D13D-4214-B18E-E4A88FB906AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA92ECE-1DDF-41D2-BA82-7354E93FC69A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2086,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="D4" s="7">
-        <v>45457</v>
+        <v>250826</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2101,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="I4" s="7">
-        <v>53689</v>
+        <v>260758</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2116,10 +2134,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>98</v>
+        <v>527</v>
       </c>
       <c r="N4" s="7">
-        <v>99146</v>
+        <v>511584</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2137,10 +2155,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>453</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7">
-        <v>447770</v>
+        <v>242401</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2152,10 +2170,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>436</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>413800</v>
+        <v>206731</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2167,10 +2185,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>889</v>
+        <v>460</v>
       </c>
       <c r="N5" s="7">
-        <v>861570</v>
+        <v>449132</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2241,10 +2259,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>415</v>
       </c>
       <c r="D7" s="7">
-        <v>69973</v>
+        <v>430205</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2256,10 +2274,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="I7" s="7">
-        <v>73170</v>
+        <v>357592</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2271,10 +2289,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>130</v>
+        <v>753</v>
       </c>
       <c r="N7" s="7">
-        <v>143143</v>
+        <v>787797</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2292,10 +2310,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>638</v>
+        <v>288</v>
       </c>
       <c r="D8" s="7">
-        <v>665516</v>
+        <v>305284</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2307,10 +2325,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>525</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7">
-        <v>551329</v>
+        <v>266907</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2322,10 +2340,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1163</v>
+        <v>540</v>
       </c>
       <c r="N8" s="7">
-        <v>1216845</v>
+        <v>572191</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2396,10 +2414,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>89</v>
+        <v>373</v>
       </c>
       <c r="D10" s="7">
-        <v>92653</v>
+        <v>387137</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2411,10 +2429,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="I10" s="7">
-        <v>101242</v>
+        <v>410907</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2426,10 +2444,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>184</v>
+        <v>764</v>
       </c>
       <c r="N10" s="7">
-        <v>193896</v>
+        <v>798044</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2447,10 +2465,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>523</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>544930</v>
+        <v>250446</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2462,10 +2480,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>562</v>
+        <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>587522</v>
+        <v>277857</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2477,10 +2495,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1085</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>1132451</v>
+        <v>528303</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2551,10 +2569,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="D13" s="7">
-        <v>70885</v>
+        <v>322955</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2566,10 +2584,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>306</v>
       </c>
       <c r="I13" s="7">
-        <v>106054</v>
+        <v>317034</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2581,10 +2599,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>169</v>
+        <v>610</v>
       </c>
       <c r="N13" s="7">
-        <v>176938</v>
+        <v>639989</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2602,10 +2620,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>448262</v>
+        <v>196192</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2617,10 +2635,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>409588</v>
+        <v>198608</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2632,10 +2650,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>817</v>
+        <v>376</v>
       </c>
       <c r="N14" s="7">
-        <v>857851</v>
+        <v>394800</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2706,10 +2724,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7">
-        <v>64440</v>
+        <v>247029</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2721,10 +2739,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="I16" s="7">
-        <v>97433</v>
+        <v>267873</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2736,10 +2754,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>160</v>
+        <v>513</v>
       </c>
       <c r="N16" s="7">
-        <v>161872</v>
+        <v>514902</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2757,10 +2775,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7">
-        <v>321426</v>
+        <v>138837</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2772,10 +2790,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="I17" s="7">
-        <v>306553</v>
+        <v>136113</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2787,10 +2805,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>627</v>
+        <v>274</v>
       </c>
       <c r="N17" s="7">
-        <v>627980</v>
+        <v>274950</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2861,10 +2879,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="D19" s="7">
-        <v>118556</v>
+        <v>347908</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2876,10 +2894,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>190</v>
+        <v>441</v>
       </c>
       <c r="I19" s="7">
-        <v>198879</v>
+        <v>454215</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2891,10 +2909,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>315</v>
+        <v>803</v>
       </c>
       <c r="N19" s="7">
-        <v>317435</v>
+        <v>802123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2912,10 +2930,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>397</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>382159</v>
+        <v>152807</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2927,10 +2945,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>471</v>
+        <v>220</v>
       </c>
       <c r="I20" s="7">
-        <v>477963</v>
+        <v>222627</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2942,10 +2960,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>868</v>
+        <v>380</v>
       </c>
       <c r="N20" s="7">
-        <v>860122</v>
+        <v>375434</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3016,10 +3034,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>457</v>
+        <v>1961</v>
       </c>
       <c r="D22" s="7">
-        <v>461964</v>
+        <v>1986059</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -3031,10 +3049,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>599</v>
+        <v>2009</v>
       </c>
       <c r="I22" s="7">
-        <v>630467</v>
+        <v>2068380</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -3046,10 +3064,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1056</v>
+        <v>3970</v>
       </c>
       <c r="N22" s="7">
-        <v>1092431</v>
+        <v>4054439</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3067,10 +3085,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2753</v>
+        <v>1249</v>
       </c>
       <c r="D23" s="7">
-        <v>2810062</v>
+        <v>1285967</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3082,10 +3100,10 @@
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>2696</v>
+        <v>1286</v>
       </c>
       <c r="I23" s="7">
-        <v>2746755</v>
+        <v>1308842</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -3097,10 +3115,10 @@
         <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>5449</v>
+        <v>2535</v>
       </c>
       <c r="N23" s="7">
-        <v>5556817</v>
+        <v>2594809</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3187,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078D9296-2560-4C6C-83C7-83066FB83B9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198952CD-FA12-40E8-AB2C-89563DAE588B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,49 +3323,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="D4" s="7">
-        <v>51298</v>
+        <v>250879</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="I4" s="7">
-        <v>43766</v>
+        <v>244244</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
-        <v>90</v>
+        <v>484</v>
       </c>
       <c r="N4" s="7">
-        <v>95065</v>
+        <v>495123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3374,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>399848</v>
+        <v>200267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>378</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>385491</v>
+        <v>185013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>773</v>
+        <v>379</v>
       </c>
       <c r="N5" s="7">
-        <v>785338</v>
+        <v>385280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3478,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="D7" s="7">
-        <v>96780</v>
+        <v>393450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="I7" s="7">
-        <v>98772</v>
+        <v>399068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
-        <v>177</v>
+        <v>752</v>
       </c>
       <c r="N7" s="7">
-        <v>195552</v>
+        <v>792517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3529,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>576</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7">
-        <v>586237</v>
+        <v>289567</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>479</v>
+        <v>198</v>
       </c>
       <c r="I8" s="7">
-        <v>509331</v>
+        <v>209035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>1055</v>
+        <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>1095568</v>
+        <v>498603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,49 +3633,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="D10" s="7">
-        <v>112934</v>
+        <v>444258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="I10" s="7">
-        <v>119314</v>
+        <v>461453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
-        <v>220</v>
+        <v>862</v>
       </c>
       <c r="N10" s="7">
-        <v>232248</v>
+        <v>905711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,49 +3684,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>542</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>567739</v>
+        <v>236415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
-        <v>551</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>587223</v>
+        <v>245084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
-        <v>1093</v>
+        <v>451</v>
       </c>
       <c r="N11" s="7">
-        <v>1154962</v>
+        <v>481499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,49 +3788,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c r="D13" s="7">
-        <v>110730</v>
+        <v>388744</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="I13" s="7">
-        <v>132209</v>
+        <v>443903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
-        <v>214</v>
+        <v>732</v>
       </c>
       <c r="N13" s="7">
-        <v>242939</v>
+        <v>832647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +3839,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>445</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>499872</v>
+        <v>221858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
-        <v>421</v>
+        <v>149</v>
       </c>
       <c r="I14" s="7">
-        <v>479132</v>
+        <v>167438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
-        <v>866</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>979004</v>
+        <v>389296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,49 +3943,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>68136</v>
+        <v>252726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>101929</v>
+        <v>306777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>508</v>
       </c>
       <c r="N16" s="7">
-        <v>170066</v>
+        <v>559503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,49 +3994,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="D17" s="7">
-        <v>359262</v>
+        <v>174672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
-        <v>313</v>
+        <v>124</v>
       </c>
       <c r="I17" s="7">
-        <v>342794</v>
+        <v>137946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
-        <v>642</v>
+        <v>286</v>
       </c>
       <c r="N17" s="7">
-        <v>702055</v>
+        <v>312618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +4098,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="D19" s="7">
-        <v>139817</v>
+        <v>379431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="I19" s="7">
-        <v>175071</v>
+        <v>505096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
-        <v>290</v>
+        <v>810</v>
       </c>
       <c r="N19" s="7">
-        <v>314888</v>
+        <v>884527</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4149,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>371</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>413100</v>
+        <v>173486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
-        <v>521</v>
+        <v>210</v>
       </c>
       <c r="I20" s="7">
-        <v>556956</v>
+        <v>226931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
-        <v>892</v>
+        <v>372</v>
       </c>
       <c r="N20" s="7">
-        <v>970056</v>
+        <v>400417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +4253,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>530</v>
+        <v>1963</v>
       </c>
       <c r="D22" s="7">
-        <v>579695</v>
+        <v>2109486</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
-        <v>613</v>
+        <v>2185</v>
       </c>
       <c r="I22" s="7">
-        <v>671062</v>
+        <v>2360541</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
-        <v>1143</v>
+        <v>4148</v>
       </c>
       <c r="N22" s="7">
-        <v>1250757</v>
+        <v>4470028</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,43 +4304,43 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2658</v>
+        <v>1225</v>
       </c>
       <c r="D23" s="7">
-        <v>2826057</v>
+        <v>1296266</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
-        <v>2663</v>
+        <v>1091</v>
       </c>
       <c r="I23" s="7">
-        <v>2860926</v>
+        <v>1171447</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
-        <v>5321</v>
+        <v>2316</v>
       </c>
       <c r="N23" s="7">
-        <v>5686984</v>
+        <v>2467713</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>268</v>
@@ -4406,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E98524-7F67-470C-AD0B-3B819DF6320F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7989AE5-8486-4AE7-B5FB-A1A586B6BED1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4524,10 +4542,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="D4" s="7">
-        <v>36177</v>
+        <v>291929</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>271</v>
@@ -4539,10 +4557,10 @@
         <v>273</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="I4" s="7">
-        <v>39813</v>
+        <v>271948</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>274</v>
@@ -4554,19 +4572,19 @@
         <v>276</v>
       </c>
       <c r="M4" s="7">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="N4" s="7">
-        <v>75990</v>
+        <v>563877</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>383286</v>
+        <v>127534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>363</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>355942</v>
+        <v>123807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>723</v>
+        <v>246</v>
       </c>
       <c r="N5" s="7">
-        <v>739228</v>
+        <v>251341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>421</v>
       </c>
       <c r="D7" s="7">
-        <v>59656</v>
+        <v>442092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>58</v>
+        <v>426</v>
       </c>
       <c r="I7" s="7">
-        <v>56578</v>
+        <v>412443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>114</v>
+        <v>847</v>
       </c>
       <c r="N7" s="7">
-        <v>116234</v>
+        <v>854535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>508</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>527446</v>
+        <v>145010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>518</v>
+        <v>150</v>
       </c>
       <c r="I8" s="7">
-        <v>503568</v>
+        <v>147703</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
-        <v>1026</v>
+        <v>293</v>
       </c>
       <c r="N8" s="7">
-        <v>1031014</v>
+        <v>292713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>468</v>
       </c>
       <c r="D10" s="7">
-        <v>74511</v>
+        <v>490105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="I10" s="7">
-        <v>82553</v>
+        <v>475047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
-        <v>154</v>
+        <v>945</v>
       </c>
       <c r="N10" s="7">
-        <v>157064</v>
+        <v>965152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>567</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>593721</v>
+        <v>178127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
-        <v>573</v>
+        <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>570537</v>
+        <v>178043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
-        <v>1140</v>
+        <v>349</v>
       </c>
       <c r="N11" s="7">
-        <v>1164258</v>
+        <v>356170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,49 +5007,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>439</v>
       </c>
       <c r="D13" s="7">
-        <v>123875</v>
+        <v>488559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>462</v>
       </c>
       <c r="I13" s="7">
-        <v>121373</v>
+        <v>499955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
-        <v>226</v>
+        <v>901</v>
       </c>
       <c r="N13" s="7">
-        <v>245248</v>
+        <v>988514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>467</v>
+        <v>140</v>
       </c>
       <c r="D14" s="7">
-        <v>518320</v>
+        <v>153636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
-        <v>488</v>
+        <v>140</v>
       </c>
       <c r="I14" s="7">
-        <v>527704</v>
+        <v>149122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
-        <v>955</v>
+        <v>280</v>
       </c>
       <c r="N14" s="7">
-        <v>1046024</v>
+        <v>302758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,49 +5162,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="D16" s="7">
-        <v>85994</v>
+        <v>346888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="I16" s="7">
-        <v>114811</v>
+        <v>386321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
-        <v>178</v>
+        <v>648</v>
       </c>
       <c r="N16" s="7">
-        <v>200805</v>
+        <v>733209</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,49 +5213,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7">
-        <v>386522</v>
+        <v>125628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>378711</v>
+        <v>107201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
-        <v>671</v>
+        <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>765233</v>
+        <v>232829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5317,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="D19" s="7">
-        <v>125289</v>
+        <v>438882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="I19" s="7">
-        <v>203099</v>
+        <v>637252</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
-        <v>305</v>
+        <v>1004</v>
       </c>
       <c r="N19" s="7">
-        <v>328388</v>
+        <v>1076133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5368,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="D20" s="7">
-        <v>464229</v>
+        <v>150636</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
-        <v>481</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
-        <v>571212</v>
+        <v>137059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
-        <v>972</v>
+        <v>273</v>
       </c>
       <c r="N20" s="7">
-        <v>1035440</v>
+        <v>287695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,49 +5472,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>482</v>
+        <v>2379</v>
       </c>
       <c r="D22" s="7">
-        <v>505503</v>
+        <v>2498453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
-        <v>569</v>
+        <v>2517</v>
       </c>
       <c r="I22" s="7">
-        <v>618226</v>
+        <v>2682965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
-        <v>1051</v>
+        <v>4896</v>
       </c>
       <c r="N22" s="7">
-        <v>1123729</v>
+        <v>5181419</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +5523,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2735</v>
+        <v>838</v>
       </c>
       <c r="D23" s="7">
-        <v>2873521</v>
+        <v>880571</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
-        <v>2752</v>
+        <v>804</v>
       </c>
       <c r="I23" s="7">
-        <v>2907675</v>
+        <v>842936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
-        <v>5487</v>
+        <v>1642</v>
       </c>
       <c r="N23" s="7">
-        <v>5781197</v>
+        <v>1723507</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C03A0F-EFEC-4ADF-BA37-2E99552DBCAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8BD511-A172-42E0-8279-F3F9F1D8B66D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,49 +5761,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>15438</v>
+        <v>143738</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>39472</v>
+        <v>159879</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="N4" s="7">
-        <v>54910</v>
+        <v>303617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,49 +5812,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>360288</v>
+        <v>231988</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7">
-        <v>315485</v>
+        <v>195078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>675773</v>
+        <v>427066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,49 +5916,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D7" s="7">
-        <v>49302</v>
+        <v>233873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>278</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>55116</v>
+        <v>233546</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
-        <v>99</v>
+        <v>407</v>
       </c>
       <c r="N7" s="7">
-        <v>104418</v>
+        <v>467419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,49 +5967,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>377725</v>
+        <v>193154</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>422</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="I8" s="7">
-        <v>442160</v>
+        <v>263730</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="M8" s="7">
-        <v>660</v>
+        <v>352</v>
       </c>
       <c r="N8" s="7">
-        <v>819885</v>
+        <v>456884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,49 +6071,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>76155</v>
+        <v>315808</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
-        <v>95</v>
+        <v>482</v>
       </c>
       <c r="I10" s="7">
-        <v>63721</v>
+        <v>320796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="M10" s="7">
-        <v>173</v>
+        <v>802</v>
       </c>
       <c r="N10" s="7">
-        <v>139877</v>
+        <v>636605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,49 +6122,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>463</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>477388</v>
+        <v>237735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="H11" s="7">
-        <v>749</v>
+        <v>362</v>
       </c>
       <c r="I11" s="7">
-        <v>518301</v>
+        <v>261226</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="M11" s="7">
-        <v>1212</v>
+        <v>583</v>
       </c>
       <c r="N11" s="7">
-        <v>995689</v>
+        <v>498961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,49 +6226,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="D13" s="7">
-        <v>109692</v>
+        <v>378187</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="H13" s="7">
-        <v>176</v>
+        <v>669</v>
       </c>
       <c r="I13" s="7">
-        <v>114312</v>
+        <v>431869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="M13" s="7">
-        <v>286</v>
+        <v>1049</v>
       </c>
       <c r="N13" s="7">
-        <v>224004</v>
+        <v>810057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,49 +6277,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>547</v>
+        <v>277</v>
       </c>
       <c r="D14" s="7">
-        <v>605583</v>
+        <v>337088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="H14" s="7">
-        <v>951</v>
+        <v>458</v>
       </c>
       <c r="I14" s="7">
-        <v>624307</v>
+        <v>306750</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
-        <v>1498</v>
+        <v>735</v>
       </c>
       <c r="N14" s="7">
-        <v>1229890</v>
+        <v>643837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,49 +6381,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="D16" s="7">
-        <v>133651</v>
+        <v>371306</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
-        <v>222</v>
+        <v>630</v>
       </c>
       <c r="I16" s="7">
-        <v>136309</v>
+        <v>377196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
-        <v>374</v>
+        <v>1046</v>
       </c>
       <c r="N16" s="7">
-        <v>269960</v>
+        <v>748502</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,49 +6432,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>506</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>461821</v>
+        <v>224166</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H17" s="7">
-        <v>765</v>
+        <v>357</v>
       </c>
       <c r="I17" s="7">
-        <v>452131</v>
+        <v>211244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
-        <v>1271</v>
+        <v>599</v>
       </c>
       <c r="N17" s="7">
-        <v>913952</v>
+        <v>435410</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,49 +6536,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>666</v>
       </c>
       <c r="D19" s="7">
-        <v>155246</v>
+        <v>449779</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
-        <v>464</v>
+        <v>1102</v>
       </c>
       <c r="I19" s="7">
-        <v>366486</v>
+        <v>708971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
-        <v>696</v>
+        <v>1768</v>
       </c>
       <c r="N19" s="7">
-        <v>521732</v>
+        <v>1158749</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +6587,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>786</v>
+        <v>352</v>
       </c>
       <c r="D20" s="7">
-        <v>535443</v>
+        <v>240910</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
-        <v>1218</v>
+        <v>580</v>
       </c>
       <c r="I20" s="7">
-        <v>644722</v>
+        <v>302237</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
-        <v>2004</v>
+        <v>932</v>
       </c>
       <c r="N20" s="7">
-        <v>1180165</v>
+        <v>543148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,49 +6691,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>624</v>
+        <v>2022</v>
       </c>
       <c r="D22" s="7">
-        <v>539484</v>
+        <v>1892692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
-        <v>1034</v>
+        <v>3213</v>
       </c>
       <c r="I22" s="7">
-        <v>775417</v>
+        <v>2232257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
-        <v>1658</v>
+        <v>5235</v>
       </c>
       <c r="N22" s="7">
-        <v>1314900</v>
+        <v>4124949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +6742,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2722</v>
+        <v>1324</v>
       </c>
       <c r="D23" s="7">
-        <v>2818249</v>
+        <v>1465041</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
-        <v>4271</v>
+        <v>2092</v>
       </c>
       <c r="I23" s="7">
-        <v>2997105</v>
+        <v>1540265</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M23" s="7">
-        <v>6993</v>
+        <v>3416</v>
       </c>
       <c r="N23" s="7">
-        <v>5815356</v>
+        <v>3005306</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6826,7 @@
         <v>8651</v>
       </c>
       <c r="N24" s="7">
-        <v>7130256</v>
+        <v>7130255</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87C602E-CC35-4336-B1D4-69B9660C259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07873AE1-551D-4147-8B0D-F41FDA13FF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{396CF042-EA5B-4B03-91DC-CA93112415C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E95B49-2223-41A8-9928-792EF0430FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="589">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>58,49%</t>
@@ -191,7 +191,7 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>60,72%</t>
@@ -248,7 +248,7 @@
     <t>42,75%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>62,21%</t>
@@ -305,7 +305,7 @@
     <t>41,3%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>64,02%</t>
@@ -362,61 +362,118 @@
     <t>38,09%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>60,7%</t>
@@ -647,9 +704,6 @@
     <t>59,26%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
     <t>72,61%</t>
   </si>
   <si>
@@ -671,9 +725,6 @@
     <t>36,33%</t>
   </si>
   <si>
-    <t>32,52%</t>
-  </si>
-  <si>
     <t>40,74%</t>
   </si>
   <si>
@@ -749,832 +800,1012 @@
     <t>39,21%</t>
   </si>
   <si>
-    <t>68,62%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>72,37%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>50,57%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>52,87%</t>
   </si>
   <si>
-    <t>40,92%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>50,68%</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2217,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA92ECE-1DDF-41D2-BA82-7354E93FC69A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB446AA-A22F-4239-9F64-6BE1A6CA1DB9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2879,10 +3110,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="D19" s="7">
-        <v>347908</v>
+        <v>196241</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2894,10 +3125,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>441</v>
+        <v>239</v>
       </c>
       <c r="I19" s="7">
-        <v>454215</v>
+        <v>221356</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2909,10 +3140,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>803</v>
+        <v>441</v>
       </c>
       <c r="N19" s="7">
-        <v>802123</v>
+        <v>417597</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2930,10 +3161,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>152807</v>
+        <v>94591</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2945,10 +3176,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="I20" s="7">
-        <v>222627</v>
+        <v>121578</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2960,10 +3191,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>380</v>
+        <v>232</v>
       </c>
       <c r="N20" s="7">
-        <v>375434</v>
+        <v>216169</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2981,10 +3212,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>500715</v>
+        <v>290832</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2996,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3011,10 +3242,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1177557</v>
+        <v>633766</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3028,55 +3259,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1961</v>
+        <v>160</v>
       </c>
       <c r="D22" s="7">
-        <v>1986059</v>
+        <v>151666</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2009</v>
+        <v>202</v>
       </c>
       <c r="I22" s="7">
-        <v>2068380</v>
+        <v>232859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3970</v>
+        <v>362</v>
       </c>
       <c r="N22" s="7">
-        <v>4054439</v>
+        <v>384525</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,49 +3316,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1249</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7">
-        <v>1285967</v>
+        <v>58217</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1286</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>1308842</v>
+        <v>101049</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2535</v>
+        <v>148</v>
       </c>
       <c r="N23" s="7">
-        <v>2594809</v>
+        <v>159266</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,63 +3367,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1961</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1986059</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2009</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2068380</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3970</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4054439</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1249</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1285967</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1286</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1308842</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2535</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2594809</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3210</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3272026</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377222</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6649248</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3205,8 +3592,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198952CD-FA12-40E8-AB2C-89563DAE588B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C75C7F-7DBB-4459-8217-0F78B68A1DA6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3222,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,13 +3716,13 @@
         <v>250879</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>238</v>
@@ -3344,13 +3731,13 @@
         <v>244244</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>484</v>
@@ -3359,13 +3746,13 @@
         <v>495123</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3767,13 @@
         <v>200267</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>182</v>
@@ -3395,13 +3782,13 @@
         <v>185013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>379</v>
@@ -3410,13 +3797,13 @@
         <v>385280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3871,13 @@
         <v>393450</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>371</v>
@@ -3499,13 +3886,13 @@
         <v>399068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>752</v>
@@ -3514,13 +3901,13 @@
         <v>792517</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3922,13 @@
         <v>289567</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
@@ -3550,13 +3937,13 @@
         <v>209035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>480</v>
@@ -3565,13 +3952,13 @@
         <v>498603</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +4026,13 @@
         <v>444258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>435</v>
@@ -3654,13 +4041,13 @@
         <v>461453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>862</v>
@@ -3669,13 +4056,13 @@
         <v>905711</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +4077,13 @@
         <v>236415</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -3705,13 +4092,13 @@
         <v>245084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -3720,13 +4107,13 @@
         <v>481499</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +4181,13 @@
         <v>388744</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -3809,13 +4196,13 @@
         <v>443903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>732</v>
@@ -3824,13 +4211,13 @@
         <v>832647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +4232,13 @@
         <v>221858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -3860,13 +4247,13 @@
         <v>167438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>348</v>
@@ -3875,13 +4262,13 @@
         <v>389296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4336,13 @@
         <v>252726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>279</v>
@@ -3964,13 +4351,13 @@
         <v>306777</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>508</v>
@@ -3979,13 +4366,13 @@
         <v>559503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4387,13 @@
         <v>174672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>124</v>
@@ -4015,13 +4402,13 @@
         <v>137946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -4030,13 +4417,13 @@
         <v>312618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4485,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="D19" s="7">
-        <v>379431</v>
+        <v>204027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="I19" s="7">
-        <v>505096</v>
+        <v>245382</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
-        <v>810</v>
+        <v>421</v>
       </c>
       <c r="N19" s="7">
-        <v>884527</v>
+        <v>449410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,49 +4536,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>173486</v>
+        <v>101073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>226931</v>
+        <v>103088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="N20" s="7">
-        <v>400417</v>
+        <v>204161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4587,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>497</v>
+        <v>277</v>
       </c>
       <c r="D21" s="7">
-        <v>552917</v>
+        <v>305100</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4215,10 +4602,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>685</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>732027</v>
+        <v>348470</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4230,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1182</v>
+        <v>617</v>
       </c>
       <c r="N21" s="7">
-        <v>1284944</v>
+        <v>653571</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,55 +4634,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1963</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>2109486</v>
+        <v>175403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>2185</v>
+        <v>234</v>
       </c>
       <c r="I22" s="7">
-        <v>2360541</v>
+        <v>259713</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>4148</v>
+        <v>389</v>
       </c>
       <c r="N22" s="7">
-        <v>4470028</v>
+        <v>435117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,49 +4691,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1225</v>
+        <v>65</v>
       </c>
       <c r="D23" s="7">
-        <v>1296266</v>
+        <v>72414</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>1091</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>1171447</v>
+        <v>123843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>2316</v>
+        <v>176</v>
       </c>
       <c r="N23" s="7">
-        <v>2467713</v>
+        <v>196256</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,63 +4742,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247817</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>383556</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>565</v>
+      </c>
+      <c r="N24" s="7">
+        <v>631373</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1963</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2109487</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2185</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2360541</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4148</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4470028</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1225</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1296266</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1091</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1171447</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2316</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2467713</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3188</v>
       </c>
-      <c r="D24" s="7">
-        <v>3405752</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3405753</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3276</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3531988</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6464</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6937741</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4424,8 +4967,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7989AE5-8486-4AE7-B5FB-A1A586B6BED1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0E3E16-EBDB-49B1-96EE-B1D784463140}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4441,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4548,13 +5091,13 @@
         <v>291929</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>277</v>
@@ -4563,13 +5106,13 @@
         <v>271948</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>551</v>
@@ -4578,13 +5121,13 @@
         <v>563877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +5142,13 @@
         <v>127534</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -4614,13 +5157,13 @@
         <v>123807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>246</v>
@@ -4629,13 +5172,13 @@
         <v>251341</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5246,13 @@
         <v>442092</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>426</v>
@@ -4718,13 +5261,13 @@
         <v>412443</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>847</v>
@@ -4733,13 +5276,13 @@
         <v>854535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +5297,13 @@
         <v>145010</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>150</v>
@@ -4769,13 +5312,13 @@
         <v>147703</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>293</v>
@@ -4784,13 +5327,13 @@
         <v>292713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +5401,13 @@
         <v>490105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>477</v>
@@ -4873,13 +5416,13 @@
         <v>475047</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>945</v>
@@ -4888,13 +5431,13 @@
         <v>965152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,16 +5449,16 @@
         <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>178127</v>
+        <v>178126</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -4924,13 +5467,13 @@
         <v>178043</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>349</v>
@@ -4939,13 +5482,13 @@
         <v>356170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +5500,7 @@
         <v>637</v>
       </c>
       <c r="D12" s="7">
-        <v>668232</v>
+        <v>668231</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5013,13 +5556,13 @@
         <v>488559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>462</v>
@@ -5028,13 +5571,13 @@
         <v>499955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>901</v>
@@ -5043,13 +5586,13 @@
         <v>988514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5607,13 @@
         <v>153636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5079,13 +5622,13 @@
         <v>149122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>280</v>
@@ -5094,13 +5637,13 @@
         <v>302758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5711,13 @@
         <v>346888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>340</v>
@@ -5183,13 +5726,13 @@
         <v>386321</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>648</v>
@@ -5198,13 +5741,13 @@
         <v>733209</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5762,13 @@
         <v>125628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -5234,13 +5777,13 @@
         <v>107201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -5249,13 +5792,13 @@
         <v>232829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5860,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>438882</v>
+        <v>239114</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
-        <v>535</v>
+        <v>284</v>
       </c>
       <c r="I19" s="7">
-        <v>637252</v>
+        <v>303710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
-        <v>1004</v>
+        <v>519</v>
       </c>
       <c r="N19" s="7">
-        <v>1076133</v>
+        <v>542824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,49 +5911,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>150636</v>
+        <v>94270</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="I20" s="7">
-        <v>137059</v>
+        <v>73079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="N20" s="7">
-        <v>287695</v>
+        <v>167349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589518</v>
+        <v>333384</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5434,10 +5977,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>652</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>774311</v>
+        <v>376789</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5449,10 +5992,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1277</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1363828</v>
+        <v>710173</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5466,55 +6009,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2379</v>
+        <v>234</v>
       </c>
       <c r="D22" s="7">
-        <v>2498453</v>
+        <v>199767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>2517</v>
+        <v>251</v>
       </c>
       <c r="I22" s="7">
-        <v>2682965</v>
+        <v>333542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>4896</v>
+        <v>485</v>
       </c>
       <c r="N22" s="7">
-        <v>5181419</v>
+        <v>533309</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,49 +6066,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>838</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7">
-        <v>880571</v>
+        <v>56366</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>804</v>
+        <v>48</v>
       </c>
       <c r="I23" s="7">
-        <v>842936</v>
+        <v>63980</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>1642</v>
+        <v>115</v>
       </c>
       <c r="N23" s="7">
-        <v>1723507</v>
+        <v>120346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,63 +6117,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>299</v>
+      </c>
+      <c r="I24" s="7">
+        <v>397522</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>600</v>
+      </c>
+      <c r="N24" s="7">
+        <v>653655</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2379</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2498453</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2517</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2682965</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4896</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5181419</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>838</v>
+      </c>
+      <c r="D26" s="7">
+        <v>880571</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
+        <v>804</v>
+      </c>
+      <c r="I26" s="7">
+        <v>842936</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1642</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1723507</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3217</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3379024</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3321</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3525901</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6538</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6904926</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5643,8 +6342,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8BD511-A172-42E0-8279-F3F9F1D8B66D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A5184E-DD6D-40CB-9E61-A7989AC3E1FD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5660,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5764,46 +6463,46 @@
         <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>143738</v>
+        <v>142713</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>159879</v>
+        <v>135451</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>163</v>
       </c>
       <c r="N4" s="7">
-        <v>303617</v>
+        <v>278164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,46 +6514,46 @@
         <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>231988</v>
+        <v>255618</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
       </c>
       <c r="I5" s="7">
-        <v>195078</v>
+        <v>177749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>427066</v>
+        <v>433367</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,7 +6565,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>375726</v>
+        <v>398331</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5881,7 +6580,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5896,7 +6595,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>730683</v>
+        <v>711531</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5919,46 +6618,46 @@
         <v>174</v>
       </c>
       <c r="D7" s="7">
-        <v>233873</v>
+        <v>225736</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>233</v>
       </c>
       <c r="I7" s="7">
-        <v>233546</v>
+        <v>209296</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>407</v>
       </c>
       <c r="N7" s="7">
-        <v>467419</v>
+        <v>435031</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,46 +6669,46 @@
         <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>193154</v>
+        <v>196468</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
       </c>
       <c r="I8" s="7">
-        <v>263730</v>
+        <v>301109</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>352</v>
       </c>
       <c r="N8" s="7">
-        <v>456884</v>
+        <v>497578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +6720,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427027</v>
+        <v>422204</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6036,7 +6735,7 @@
         <v>458</v>
       </c>
       <c r="I9" s="7">
-        <v>497276</v>
+        <v>510405</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6051,7 +6750,7 @@
         <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>924303</v>
+        <v>932609</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6074,46 +6773,46 @@
         <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>315808</v>
+        <v>299598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
       </c>
       <c r="I10" s="7">
-        <v>320796</v>
+        <v>295351</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>802</v>
       </c>
       <c r="N10" s="7">
-        <v>636605</v>
+        <v>594949</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6824,46 @@
         <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>237735</v>
+        <v>232901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>362</v>
       </c>
       <c r="I11" s="7">
-        <v>261226</v>
+        <v>245748</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="M11" s="7">
         <v>583</v>
       </c>
       <c r="N11" s="7">
-        <v>498961</v>
+        <v>478648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6875,7 @@
         <v>541</v>
       </c>
       <c r="D12" s="7">
-        <v>553543</v>
+        <v>532499</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6191,7 +6890,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>582022</v>
+        <v>541099</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6206,7 +6905,7 @@
         <v>1385</v>
       </c>
       <c r="N12" s="7">
-        <v>1135566</v>
+        <v>1073597</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6229,46 +6928,46 @@
         <v>380</v>
       </c>
       <c r="D13" s="7">
-        <v>378187</v>
+        <v>357146</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="H13" s="7">
         <v>669</v>
       </c>
       <c r="I13" s="7">
-        <v>431869</v>
+        <v>393249</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>1049</v>
       </c>
       <c r="N13" s="7">
-        <v>810057</v>
+        <v>750395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6979,46 @@
         <v>277</v>
       </c>
       <c r="D14" s="7">
-        <v>337088</v>
+        <v>522325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>458</v>
       </c>
       <c r="I14" s="7">
-        <v>306750</v>
+        <v>311521</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>735</v>
       </c>
       <c r="N14" s="7">
-        <v>643837</v>
+        <v>833846</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,7 +7030,7 @@
         <v>657</v>
       </c>
       <c r="D15" s="7">
-        <v>715275</v>
+        <v>879471</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6346,7 +7045,7 @@
         <v>1127</v>
       </c>
       <c r="I15" s="7">
-        <v>738619</v>
+        <v>704770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6361,7 +7060,7 @@
         <v>1784</v>
       </c>
       <c r="N15" s="7">
-        <v>1453894</v>
+        <v>1584241</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6384,46 +7083,46 @@
         <v>416</v>
       </c>
       <c r="D16" s="7">
-        <v>371306</v>
+        <v>342500</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>630</v>
       </c>
       <c r="I16" s="7">
-        <v>377196</v>
+        <v>342915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>1046</v>
       </c>
       <c r="N16" s="7">
-        <v>748502</v>
+        <v>685415</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,46 +7134,46 @@
         <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>224166</v>
+        <v>214298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="H17" s="7">
         <v>357</v>
       </c>
       <c r="I17" s="7">
-        <v>211244</v>
+        <v>197042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
       </c>
       <c r="N17" s="7">
-        <v>435410</v>
+        <v>411340</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +7185,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>595472</v>
+        <v>556798</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6501,7 +7200,7 @@
         <v>987</v>
       </c>
       <c r="I18" s="7">
-        <v>588440</v>
+        <v>539957</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6516,7 +7215,7 @@
         <v>1645</v>
       </c>
       <c r="N18" s="7">
-        <v>1183912</v>
+        <v>1096755</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,49 +7235,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>666</v>
+        <v>356</v>
       </c>
       <c r="D19" s="7">
-        <v>449779</v>
+        <v>227592</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="H19" s="7">
-        <v>1102</v>
+        <v>494</v>
       </c>
       <c r="I19" s="7">
-        <v>708971</v>
+        <v>448114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
-        <v>1768</v>
+        <v>850</v>
       </c>
       <c r="N19" s="7">
-        <v>1158749</v>
+        <v>675706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,49 +7286,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>352</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>240910</v>
+        <v>139420</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
-        <v>580</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>302237</v>
+        <v>157073</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
-        <v>932</v>
+        <v>539</v>
       </c>
       <c r="N20" s="7">
-        <v>543148</v>
+        <v>296493</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,10 +7337,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1018</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>690689</v>
+        <v>367012</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6653,10 +7352,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1682</v>
+        <v>821</v>
       </c>
       <c r="I21" s="7">
-        <v>1011208</v>
+        <v>605187</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6668,10 +7367,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2700</v>
+        <v>1389</v>
       </c>
       <c r="N21" s="7">
-        <v>1701897</v>
+        <v>972199</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6685,55 +7384,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2022</v>
+        <v>310</v>
       </c>
       <c r="D22" s="7">
-        <v>1892692</v>
+        <v>186492</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
-        <v>3213</v>
+        <v>608</v>
       </c>
       <c r="I22" s="7">
-        <v>2232257</v>
+        <v>292414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
-        <v>5235</v>
+        <v>918</v>
       </c>
       <c r="N22" s="7">
-        <v>4124949</v>
+        <v>478906</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,49 +7441,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1324</v>
+        <v>140</v>
       </c>
       <c r="D23" s="7">
-        <v>1465041</v>
+        <v>90730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="H23" s="7">
-        <v>2092</v>
+        <v>253</v>
       </c>
       <c r="I23" s="7">
-        <v>1540265</v>
+        <v>122490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="M23" s="7">
-        <v>3416</v>
+        <v>393</v>
       </c>
       <c r="N23" s="7">
-        <v>3005306</v>
+        <v>213220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,63 +7492,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>450</v>
+      </c>
+      <c r="D24" s="7">
+        <v>277222</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>861</v>
+      </c>
+      <c r="I24" s="7">
+        <v>414904</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1311</v>
+      </c>
+      <c r="N24" s="7">
+        <v>692126</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1781775</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3213</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2116789</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5235</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3898565</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1324</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1651761</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2092</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1512733</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3416</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3164493</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3346</v>
       </c>
-      <c r="D24" s="7">
-        <v>3357733</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3433536</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5305</v>
       </c>
-      <c r="I24" s="7">
-        <v>3772522</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3629522</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8651</v>
       </c>
-      <c r="N24" s="7">
-        <v>7130255</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7063058</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
